--- a/DATA_goal/Junction_Flooding_39.xlsx
+++ b/DATA_goal/Junction_Flooding_39.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>40750.81944444445</v>
+        <v>40750.81943287037</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>8.59</v>
@@ -1609,7 +1609,7 @@
         <v>6.94</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>24.34</v>
+        <v>24.35</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>10.44</v>
@@ -1663,7 +1663,7 @@
         <v>0.89</v>
       </c>
       <c r="Z11" s="4" t="n">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="AA11" s="4" t="n">
         <v>5.5</v>
@@ -1681,117 +1681,13 @@
         <v>0.2</v>
       </c>
       <c r="AF11" s="4" t="n">
-        <v>22</v>
+        <v>22.01</v>
       </c>
       <c r="AG11" s="4" t="n">
         <v>3.54</v>
       </c>
       <c r="AH11" s="4" t="n">
         <v>7.79</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40750.82637731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>26.11</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>35.27</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>135.81</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>10.83</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_39.xlsx
+++ b/DATA_goal/Junction_Flooding_39.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.75</v>
+        <v>1.58</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>112.77</v>
+        <v>11.28</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.85</v>
+        <v>1.28</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40750.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.85</v>
+        <v>0.28</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>9.74</v>
-      </c>
       <c r="AG3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -863,16 +863,16 @@
         <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0</v>
@@ -881,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -902,64 +902,64 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.07</v>
+        <v>0.41</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.23</v>
+        <v>0.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.84</v>
+        <v>3.88</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40750.78472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>32.31</v>
+        <v>3.23</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26.24</v>
+        <v>2.62</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.95</v>
+        <v>1.19</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>40.29</v>
+        <v>4.03</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>17.99</v>
+        <v>1.8</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>13.55</v>
+        <v>1.36</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>170.32</v>
+        <v>17.03</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>32.45</v>
+        <v>3.25</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>21.74</v>
+        <v>2.17</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>36.58</v>
+        <v>3.66</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40750.79166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>38.61</v>
+        <v>3.86</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>31.5</v>
+        <v>3.15</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>53.27</v>
+        <v>5.33</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>21.48</v>
+        <v>2.15</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.45</v>
+        <v>1.55</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.26</v>
+        <v>1.63</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>19.75</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>204.61</v>
+        <v>20.46</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>38.9</v>
+        <v>3.89</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>26.15</v>
+        <v>2.61</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>26.51</v>
+        <v>2.65</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.32</v>
+        <v>1.63</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>48.63</v>
+        <v>4.86</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40750.79861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q8" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>29.59</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>5.77</v>
-      </c>
       <c r="R8" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>95.84999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>19.06</v>
+        <v>1.91</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>27.25</v>
+        <v>2.73</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40750.80555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>6.55</v>
+        <v>0.66</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>38.6</v>
+        <v>3.86</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40750.8125</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L10" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>3.74</v>
-      </c>
       <c r="M10" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>44.26</v>
+        <v>4.43</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>12.51</v>
+        <v>1.25</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_39.xlsx
+++ b/DATA_goal/Junction_Flooding_39.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -464,7 +464,7 @@
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.75694444445</v>
+        <v>36011.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.76388888889</v>
+        <v>36011.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="E3" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N3" s="4" t="n">
+      <c r="S3" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>2.14</v>
+        <v>11.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.21</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.33</v>
+        <v>1.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.76</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.57</v>
+        <v>1.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.64</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.59</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.92</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.97</v>
+        <v>2.71</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.77083333334</v>
+        <v>36011.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.62</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>0.41</v>
+        <v>2.47</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.77777777778</v>
+        <v>36011.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.82</v>
+        <v>1.57</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.62</v>
+        <v>1.24</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.87</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.53</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.88</v>
+        <v>7.85</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.82</v>
+        <v>1.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.66</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.85</v>
+        <v>2.1</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>40750.78472222222</v>
+        <v>36011.03472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.48</v>
+        <v>6.61</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.11</v>
+        <v>4.9</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.65</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.23</v>
+        <v>14.62</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.62</v>
+        <v>11.63</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.19</v>
+        <v>5.12</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.03</v>
+        <v>21.17</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.8</v>
+        <v>3.64</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.19</v>
+        <v>5.04</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.29</v>
+        <v>5.85</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.36</v>
+        <v>6.33</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.37</v>
+        <v>1.57</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.17</v>
+        <v>5.26</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.65</v>
+        <v>7.37</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.99</v>
+        <v>4.61</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.52</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.27</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>17.03</v>
+        <v>72.78</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.25</v>
+        <v>14.74</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.08</v>
+        <v>4.86</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.17</v>
+        <v>9.74</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.15</v>
+        <v>5.11</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.15</v>
+        <v>0.83</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.07</v>
+        <v>10.35</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.95</v>
+        <v>4.29</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.84</v>
+        <v>3.89</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.99</v>
+        <v>4.55</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.37</v>
+        <v>6.17</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.66</v>
+        <v>19.24</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.61</v>
+        <v>2.65</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>40750.79166666666</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>40750.79861111111</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>40750.80555555555</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>40750.8125</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>40750.81943287037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>24.35</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>95.73999999999999</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>22.01</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>7.79</v>
+        <v>6.07</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_39.xlsx
+++ b/DATA_goal/Junction_Flooding_39.xlsx
@@ -443,28 +443,28 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>36011.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.25</v>
+        <v>22.49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.55</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.3</v>
+        <v>22.99</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>11.85</v>
+        <v>118.5</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.78</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.3</v>
+        <v>12.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.37</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>36011.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.85</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.94</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.96</v>
+        <v>29.62</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.66</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.08</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.28</v>
+        <v>112.84</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.09</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.93</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.71</v>
+        <v>27.13</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>36011.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.76</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.71</v>
+        <v>27.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.43</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="M4" s="4" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.82</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.57</v>
+        <v>95.68000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.9</v>
+        <v>18.96</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.45</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.39</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.47</v>
+        <v>24.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>36011.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>78.51000000000001</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>2.1</v>
+        <v>20.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_39.xlsx
+++ b/DATA_goal/Junction_Flooding_39.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>36011.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.23</v>
+        <v>10.232</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.99</v>
+        <v>6.988</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.382</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.49</v>
+        <v>22.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.55</v>
+        <v>16.551</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.71</v>
+        <v>7.711</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.99</v>
+        <v>22.993</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.75</v>
+        <v>12.747</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.033</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.87</v>
+        <v>6.872</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.68</v>
+        <v>8.682</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.968</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>2.214</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.09</v>
+        <v>11.091</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.66</v>
+        <v>7.662</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.4</v>
+        <v>2.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.071</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>118.5</v>
+        <v>118.497</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.78</v>
+        <v>22.775</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.43</v>
+        <v>14.429</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.15</v>
+        <v>2.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.96</v>
+        <v>12.965</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.37</v>
+        <v>6.372</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.24</v>
+        <v>7.242</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.57</v>
+        <v>9.571</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.47</v>
+        <v>2.474</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.43</v>
+        <v>20.428</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.86</v>
+        <v>3.858</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>36011.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>9.865</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.15</v>
+        <v>7.153</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.539</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.85</v>
+        <v>21.852</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.94</v>
+        <v>16.941</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.58</v>
+        <v>7.577</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.62</v>
+        <v>29.619</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.17</v>
+        <v>12.169</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.27</v>
+        <v>5.267</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.24</v>
+        <v>7.241</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.66</v>
+        <v>8.657999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.537000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.27</v>
+        <v>2.273</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.94</v>
+        <v>10.939</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.08</v>
+        <v>7.083</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.572</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.84</v>
+        <v>112.844</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.09</v>
+        <v>22.089</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.41</v>
+        <v>14.409</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.56</v>
+        <v>7.565</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.446</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.18</v>
+        <v>15.178</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.93</v>
+        <v>5.925</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.9</v>
+        <v>6.898</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.223000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.13</v>
+        <v>27.133</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.87</v>
+        <v>3.872</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.111000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -866,16 +866,16 @@
         <v>8.48</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.23</v>
+        <v>6.228</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.038</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.77</v>
+        <v>18.773</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.76</v>
+        <v>14.759</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>6.54</v>
@@ -884,79 +884,79 @@
         <v>27.06</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.43</v>
+        <v>10.427</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.61</v>
+        <v>4.607</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.36</v>
+        <v>6.358</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>7.48</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.16</v>
+        <v>8.157999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.99</v>
+        <v>1.986</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.44</v>
+        <v>9.436999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.99</v>
+        <v>5.995</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.824</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.405</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.68000000000001</v>
+        <v>95.67700000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>18.96</v>
+        <v>18.959</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.25</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.45</v>
+        <v>12.455</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.141</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.39</v>
+        <v>13.395</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.52</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.04</v>
+        <v>5.037</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.88</v>
+        <v>5.884</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>7.92</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.7</v>
+        <v>24.701</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.36</v>
+        <v>3.364</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>7.81</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>36011.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.78</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.07</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_39.xlsx
+++ b/DATA_goal/Junction_Flooding_39.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>36011.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.07</v>
+        <v>7.073</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>5.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.66</v>
+        <v>15.655</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.37</v>
+        <v>12.372</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.46</v>
+        <v>5.459</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.01</v>
+        <v>23.007</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.685</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.88</v>
+        <v>3.878</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.34</v>
+        <v>5.338</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.25</v>
+        <v>6.251</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.79</v>
+        <v>6.793</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.67</v>
+        <v>1.666</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>7.88</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.97</v>
+        <v>4.973</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.634</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.51000000000001</v>
+        <v>78.508</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>15.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.21</v>
+        <v>5.205</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.41</v>
+        <v>10.414</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>5.46</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.923</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.26</v>
+        <v>11.263</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.19</v>
+        <v>4.185</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.89</v>
+        <v>4.894</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.6</v>
+        <v>6.604</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>20.962</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.508</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>36011.03472222222</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>20.96</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>6.51</v>
+      <c r="S6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.78</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.07</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_39.xlsx
+++ b/DATA_goal/Junction_Flooding_39.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>36011.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.073</v>
+        <v>7.07</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>5.22</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.785</v>
+        <v>0.78</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.655</v>
+        <v>15.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.372</v>
+        <v>12.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.459</v>
+        <v>5.46</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.007</v>
+        <v>23.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.685</v>
+        <v>8.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.878</v>
+        <v>3.88</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.338</v>
+        <v>5.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.251</v>
+        <v>6.25</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.793</v>
+        <v>6.79</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.666</v>
+        <v>1.67</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.639</v>
+        <v>5.64</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>7.88</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.973</v>
+        <v>4.97</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.634</v>
+        <v>0.63</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.309</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.508</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>15.81</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.205</v>
+        <v>5.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.414</v>
+        <v>10.41</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>5.46</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.923</v>
+        <v>0.92</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.263</v>
+        <v>11.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.598</v>
+        <v>4.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.185</v>
+        <v>4.19</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.894</v>
+        <v>4.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.604</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.522</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.962</v>
+        <v>20.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.816</v>
+        <v>2.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.508</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>36011.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.78</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.74</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.07</v>
+        <v>6.51</v>
       </c>
     </row>
   </sheetData>
